--- a/WS_mrepc/input.xlsx
+++ b/WS_mrepc/input.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\WS_mrepc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2096BC-E5F6-4690-A0C3-ED15E72987D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A302D-701D-4598-9437-6D5E9234CBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Automotive" sheetId="3" r:id="rId1"/>
-    <sheet name="Med_dev" sheetId="1" r:id="rId2"/>
-    <sheet name="Hsehold_prods" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="medical_dev" sheetId="1" r:id="rId2"/>
+    <sheet name="hsehold_prods" sheetId="2" r:id="rId3"/>
     <sheet name="Ind_prods" sheetId="5" r:id="rId4"/>
-    <sheet name="Retread_Mat" sheetId="4" r:id="rId5"/>
+    <sheet name="Retread_mat" sheetId="4" r:id="rId5"/>
     <sheet name="Sport_toys" sheetId="6" r:id="rId6"/>
     <sheet name="Footwear" sheetId="8" r:id="rId7"/>
-    <sheet name="Tube_tyres" sheetId="9" r:id="rId8"/>
+    <sheet name="tube_tyres" sheetId="9" r:id="rId8"/>
     <sheet name="Rub_supp" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="Others" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="477">
   <si>
     <t>Put websites to scrape below:</t>
   </si>
@@ -191,9 +192,6 @@
     </r>
   </si>
   <si>
-    <t>Medical_Devices</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=155&amp;subcategory=0147</t>
   </si>
   <si>
@@ -206,9 +204,6 @@
     <t>Soothers/Pacifiers and Teats</t>
   </si>
   <si>
-    <t>Household_products</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=024&amp;subcategory=0084</t>
   </si>
   <si>
@@ -309,9 +304,6 @@
   </si>
   <si>
     <t>Flooring/Mats</t>
-  </si>
-  <si>
-    <t>Automotive</t>
   </si>
   <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=173&amp;subcategory=0000</t>
@@ -690,9 +682,6 @@
     <t>Stoppers</t>
   </si>
   <si>
-    <t>Industrial_products</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=026&amp;subcategory=0162</t>
   </si>
   <si>
@@ -1300,226 +1289,238 @@
     <t>Rubber_suppliers</t>
   </si>
   <si>
+    <t>ADS Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Compounded Latex Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Crepe Rubber Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>DPNR Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>ENR Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>House Grades Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Latex Concentrate (LA, MA, HA) Manufacturer Directory </t>
+  </si>
+  <si>
+    <t>MG Rubber Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Prevulcanised Latex Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>RSS ( 1 - 5 ) Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Skim Block Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>SP Rubber Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>Specialty Latex Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0207</t>
+  </si>
+  <si>
+    <t>SMR 10</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0208</t>
+  </si>
+  <si>
+    <t>SMR 10 CV</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0209</t>
+  </si>
+  <si>
+    <t>SMR 20</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0210</t>
+  </si>
+  <si>
+    <t>SMR 20 CV</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0211</t>
+  </si>
+  <si>
+    <t>SMR 5</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0212</t>
+  </si>
+  <si>
+    <t>SMR CV 50</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0213</t>
+  </si>
+  <si>
+    <t>SMR CV 60</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0214</t>
+  </si>
+  <si>
+    <t>SMR GP</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0215</t>
+  </si>
+  <si>
+    <t>SMR L</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0216</t>
+  </si>
+  <si>
+    <t>STR 10</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0217</t>
+  </si>
+  <si>
+    <t>STR 10CV</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0218</t>
+  </si>
+  <si>
+    <t>STR 20</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0219</t>
+  </si>
+  <si>
+    <t>STR 20CV</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=042&amp;subcategory=0130</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=042&amp;subcategory=0129</t>
+  </si>
+  <si>
+    <t>Solution Adhesive</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=043&amp;subcategory=0131</t>
+  </si>
+  <si>
+    <t>Polyurethane Gloves</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=043&amp;subcategory=0133</t>
+  </si>
+  <si>
+    <t>Specialty Gloves</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=044&amp;subcategory=0000</t>
+  </si>
+  <si>
+    <t>Rubber Compounds Manufacturer Directory</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=045&amp;subcategory=0000</t>
+  </si>
+  <si>
+    <t>Rubber Flaps</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=046&amp;subcategory=0000</t>
+  </si>
+  <si>
+    <t>Rubber Straps</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=047&amp;subcategory=0135</t>
+  </si>
+  <si>
+    <t>Latex Sheetings</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=047&amp;subcategory=0136</t>
+  </si>
+  <si>
+    <t>Rubber Cot Sheets</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=225&amp;subcategory=0224</t>
+  </si>
+  <si>
+    <t>Erasers</t>
+  </si>
+  <si>
+    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=225&amp;subcategory=0225</t>
+  </si>
+  <si>
+    <t>Tape Adhesives</t>
+  </si>
+  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=192&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>ADS Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=193&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Compounded Latex Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=195&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Crepe Rubber Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=196&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>DPNR Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=197&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>ENR Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=198&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>House Grades Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=199&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Latex Concentrate (LA, MA, HA) Manufacturer Directory </t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=200&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>MG Rubber Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=201&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Prevulcanised Latex Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=202&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>RSS ( 1 - 5 ) Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=204&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Skim Block Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=205&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>SP Rubber Manufacturer Directory</t>
-  </si>
-  <si>
     <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=206&amp;subcategory=0000</t>
   </si>
   <si>
-    <t>Specialty Latex Manufacturer Directory</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0207</t>
-  </si>
-  <si>
-    <t>SMR 10</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0208</t>
-  </si>
-  <si>
-    <t>SMR 10 CV</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0209</t>
-  </si>
-  <si>
-    <t>SMR 20</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0210</t>
-  </si>
-  <si>
-    <t>SMR 20 CV</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0211</t>
-  </si>
-  <si>
-    <t>SMR 5</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0212</t>
-  </si>
-  <si>
-    <t>SMR CV 50</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0213</t>
-  </si>
-  <si>
-    <t>SMR CV 60</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0214</t>
-  </si>
-  <si>
-    <t>SMR GP</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=208&amp;subcategory=0215</t>
-  </si>
-  <si>
-    <t>SMR L</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0216</t>
-  </si>
-  <si>
-    <t>STR 10</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0217</t>
-  </si>
-  <si>
-    <t>STR 10CV</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0218</t>
-  </si>
-  <si>
-    <t>STR 20</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=209&amp;subcategory=0219</t>
-  </si>
-  <si>
-    <t>STR 20CV</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=042&amp;subcategory=0130</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=042&amp;subcategory=0129</t>
-  </si>
-  <si>
-    <t>Solution Adhesive</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=043&amp;subcategory=0131</t>
-  </si>
-  <si>
-    <t>Polyurethane Gloves</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=043&amp;subcategory=0133</t>
-  </si>
-  <si>
-    <t>Specialty Gloves</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=044&amp;subcategory=0000</t>
-  </si>
-  <si>
-    <t>Rubber Compounds Manufacturer Directory</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=045&amp;subcategory=0000</t>
-  </si>
-  <si>
-    <t>Rubber Flaps</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_products.php?category=046&amp;subcategory=0000</t>
-  </si>
-  <si>
-    <t>Rubber Straps</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=047&amp;subcategory=0135</t>
-  </si>
-  <si>
-    <t>Latex Sheetings</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=047&amp;subcategory=0136</t>
-  </si>
-  <si>
-    <t>Rubber Cot Sheets</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=225&amp;subcategory=0224</t>
-  </si>
-  <si>
-    <t>Erasers</t>
-  </si>
-  <si>
-    <t>http://www.myrubbercouncil.com/marketplace/public/search_productscat.php?category=225&amp;subcategory=0225</t>
-  </si>
-  <si>
-    <t>Tape Adhesives</t>
+    <t>Industrial_products3</t>
+  </si>
+  <si>
+    <t>Household_products2</t>
+  </si>
+  <si>
+    <t>Medical_Devices2</t>
+  </si>
+  <si>
+    <t>Automotive4</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1619,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1908,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF8704D-3551-451D-8EE6-1874F0FB39BC}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B25:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1927,504 +1930,600 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{11123430-5BD0-4978-8FB4-B8254125771B}"/>
-    <hyperlink ref="A30" r:id="rId2" xr:uid="{65B99A70-2339-41B9-AA26-D39D36105690}"/>
-    <hyperlink ref="A32" r:id="rId3" xr:uid="{142A1CB3-3444-419F-BBAC-4DBFF68CE15E}"/>
-    <hyperlink ref="A35" r:id="rId4" xr:uid="{6BC45687-78D0-4A6F-8D28-8CA9EC57B0E2}"/>
-    <hyperlink ref="A54" r:id="rId5" xr:uid="{24168BC4-87D8-4985-8617-0CCBC0C8358C}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{24168BC4-87D8-4985-8617-0CCBC0C8358C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B952BDE-6C01-4F86-8A8A-7902EA361897}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J45" sqref="I45:J59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10">
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10">
+      <c r="I26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10">
+      <c r="I27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10">
+      <c r="I28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10">
+      <c r="I29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="I30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10">
+      <c r="I31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10">
+      <c r="I42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10">
+      <c r="I43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10">
+      <c r="I44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{90A605BD-C82A-47BE-8E7D-12C6B3460DB8}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{11123430-5BD0-4978-8FB4-B8254125771B}"/>
+    <hyperlink ref="I29" r:id="rId3" xr:uid="{65B99A70-2339-41B9-AA26-D39D36105690}"/>
+    <hyperlink ref="I31" r:id="rId4" xr:uid="{142A1CB3-3444-419F-BBAC-4DBFF68CE15E}"/>
+    <hyperlink ref="I34" r:id="rId5" xr:uid="{6BC45687-78D0-4A6F-8D28-8CA9EC57B0E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F36C39-BDE1-45C5-94AD-21A73AD2942F}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2442,96 +2541,96 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2740,7 +2839,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2767,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2968,7 +3067,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2986,160 +3085,160 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3168,7 +3267,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3186,77 +3285,77 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -3264,15 +3363,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -3280,290 +3379,290 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3632,7 +3731,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3650,72 +3749,72 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3936,7 +4035,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3954,72 +4053,72 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4240,7 +4339,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4258,120 +4357,120 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4568,7 +4667,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4586,192 +4685,192 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4932,7 +5031,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4949,217 +5048,217 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>404</v>
+      <c r="A2" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:2">
